--- a/Сводная_таблица_котлы_2025-09-05.xlsx
+++ b/Сводная_таблица_котлы_2025-09-05.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,39 +464,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10680202001</t>
+          <t>10680736001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B20 18 C</t>
+          <t>Котел настенный METEOR T2 45 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37848</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10680203005</t>
+          <t>10680735002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B20 24 C</t>
+          <t>Котел настенный METEOR T2 60 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39176</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -510,23 +510,1794 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10680737001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR T2 80 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10680202004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C11 18 C</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10680203003</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C11 24 C</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10680202005</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor Q3 18 C</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10680203006</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor Q3 24 C</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10680202001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B20 18 C</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3130101002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 99S</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3130102002</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 120S</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3130103002</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 250</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3130104002</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 350</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3130105002</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 500</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3130106002</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 700</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3130107002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 1050</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3130108002</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 1400Х</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3130109002</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 2100Х</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3130110002</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Котел напольный MK 2800Х</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>8732304313</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Котел настенный LaggarTT ГАЗ 6000 24 С</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>60714</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>В наличии</t>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10680625003</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M30 26 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10680628003</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M30 30 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10680632003</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M30 36 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10680725004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M30 26 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10680728004</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M30 30 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10680732004</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M30 36 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10680725003</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M6 26 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10680728003</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M6 30 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10680732003</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M6 36 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10680725002</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M6 26 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10680728002</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M6 30 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10680732002</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR M6 36 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10680202007</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 18 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10680203009</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 24 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10680204007</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 28 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10680205007</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 32 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10680206008</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 36 C с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10680502007</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 18 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10680503007</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 24 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10680504007</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 28 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10680505007</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 32 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10680506007</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B30 36 H с Wi-Fi и датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10680202009</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B23 18 С с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10680203011</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR B23 24 С с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10680202008</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 18 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10680203010</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 24 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10680204008</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 28 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10680205008</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 32 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10680206009</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 36 C с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10680502003</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 18 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10680503003</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 24 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10680504003</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 28 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10680505003</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 32 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10680506003</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Котел настенный METEOR C30 36 H с датчиком наружной температуры</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8732304314</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Котел настенный LaggarTT ГАЗ 6000 28 С</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>8732304315</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Котел настенный LaggarTT ГАЗ 6000 35 С</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10680203005</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B20 24 C</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10680202003</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C30 18 C</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10680203004</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C30 24 C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10680204001</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C30 28 C</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10680205001</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C30 32 C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10680206002</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor C30 36 C</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10680202002</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 18 C</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10680203001</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 24 C</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10680204002</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 28 C</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10680205002</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 32 C</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10680206003</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 36 C</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10680502001</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 18 H</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10680503001</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 24 H</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10680504001</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 28 H</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10680505001</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 32 H</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10680506001</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor B30 36 H</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10680725001</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor M30 26 H</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10680728001</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor M30 30 H</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10680732001</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor M30 36 H</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10680625001</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor M30 26 C</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10680628001</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor M30 30 C</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10680632002</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Котел настенный Meteor M30 36 C</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10680628002</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Котел настенный Devotion LL1GBQ30-M6</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10680632001</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Котел настенный Devotion LL1GBQ35-M6</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10680735001</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Котел настенный Devotion LN1GBQ60-T2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
         </is>
       </c>
     </row>
@@ -568,7 +2339,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +2349,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -588,7 +2359,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Сводная_таблица_котлы_2025-09-05.xlsx
+++ b/Сводная_таблица_котлы_2025-09-05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сводная таблица" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Итоги" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Сводная таблица" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Итоги" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,12 +464,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10680736001</t>
+          <t>10680202001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR T2 45 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B20 18 C</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -487,12 +487,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10680735002</t>
+          <t>10680202002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR T2 60 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 18 C</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -510,12 +510,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10680737001</t>
+          <t>10680202003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR T2 80 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 18 C</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,12 +556,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10680203003</t>
+          <t>10680202005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C11 24 C</t>
+          <t>Котел настенный Meteor Q3 18 C</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -579,12 +579,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10680202005</t>
+          <t>10680202007</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor Q3 18 C</t>
+          <t>Котел настенный METEOR B30 18 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -602,12 +602,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10680203006</t>
+          <t>10680202008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor Q3 24 C</t>
+          <t>Котел настенный METEOR C30 18 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -625,12 +625,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10680202001</t>
+          <t>10680202009</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B20 18 C</t>
+          <t>Котел настенный METEOR B23 18 С с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -648,12 +648,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3130101002</t>
+          <t>10680203001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Котел напольный MK 99S</t>
+          <t>Котел настенный Meteor B30 24 C</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -671,12 +671,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3130102002</t>
+          <t>10680203003</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Котел напольный MK 120S</t>
+          <t>Котел настенный Meteor C11 24 C</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -694,12 +694,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3130103002</t>
+          <t>10680203004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Котел напольный MK 250</t>
+          <t>Котел настенный Meteor C30 24 C</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -717,12 +717,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3130104002</t>
+          <t>10680203005</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Котел напольный MK 350</t>
+          <t>Котел настенный Meteor B20 24 C</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -740,12 +740,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3130105002</t>
+          <t>10680203006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Котел напольный MK 500</t>
+          <t>Котел настенный Meteor Q3 24 C</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -763,12 +763,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3130106002</t>
+          <t>10680203009</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Котел напольный MK 700</t>
+          <t>Котел настенный METEOR B30 24 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -786,12 +786,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3130107002</t>
+          <t>10680203010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Котел напольный MK 1050</t>
+          <t>Котел настенный METEOR C30 24 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -809,12 +809,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3130108002</t>
+          <t>10680203011</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Котел напольный MK 1400Х</t>
+          <t>Котел настенный METEOR B23 24 С с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -832,12 +832,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3130109002</t>
+          <t>10680204001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Котел напольный MK 2100Х</t>
+          <t>Котел настенный Meteor C30 28 C</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -855,12 +855,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3130110002</t>
+          <t>10680204002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Котел напольный MK 2800Х</t>
+          <t>Котел настенный Meteor B30 28 C</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -878,12 +878,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8732304313</t>
+          <t>10680204007</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Котел настенный LaggarTT ГАЗ 6000 24 С</t>
+          <t>Котел настенный METEOR B30 28 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -901,12 +901,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10680625003</t>
+          <t>10680204008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 26 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 28 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -924,12 +924,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10680628003</t>
+          <t>10680205001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 30 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 32 C</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -947,12 +947,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10680632003</t>
+          <t>10680205002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 36 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 32 C</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -970,12 +970,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10680725004</t>
+          <t>10680205007</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 26 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 32 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -993,12 +993,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10680728004</t>
+          <t>10680205008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 30 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 32 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1016,12 +1016,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10680732004</t>
+          <t>10680206002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 36 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 36 C</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1039,12 +1039,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10680725003</t>
+          <t>10680206003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 26 C с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 36 C</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1062,12 +1062,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10680728003</t>
+          <t>10680206008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 30 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 36 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1085,12 +1085,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10680732003</t>
+          <t>10680206009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 36 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 36 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1108,12 +1108,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10680725002</t>
+          <t>10680502001</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 26 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 18 H</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1131,12 +1131,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10680728002</t>
+          <t>10680502003</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 30 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 18 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1154,12 +1154,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10680732002</t>
+          <t>10680502007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 36 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 18 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1177,12 +1177,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10680202007</t>
+          <t>10680503001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 18 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 24 H</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1200,12 +1200,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10680203009</t>
+          <t>10680503003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 24 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 24 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1223,12 +1223,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10680204007</t>
+          <t>10680503007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 28 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 24 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1246,12 +1246,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10680205007</t>
+          <t>10680504001</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 32 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 28 H</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1269,12 +1269,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10680206008</t>
+          <t>10680504003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 36 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 28 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1292,12 +1292,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10680502007</t>
+          <t>10680504007</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 18 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 28 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1315,12 +1315,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10680503007</t>
+          <t>10680505001</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 24 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 32 H</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1338,12 +1338,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10680504007</t>
+          <t>10680505003</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 28 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 32 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1384,12 +1384,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10680506007</t>
+          <t>10680506001</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 36 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 36 H</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1407,12 +1407,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10680202009</t>
+          <t>10680506003</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B23 18 С с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 36 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1430,12 +1430,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10680203011</t>
+          <t>10680506007</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B23 24 С с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 36 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1453,12 +1453,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10680202008</t>
+          <t>10680625001</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 18 C с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor M30 26 C</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1476,12 +1476,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10680203010</t>
+          <t>10680625003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 24 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M30 26 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1499,12 +1499,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10680204008</t>
+          <t>10680628001</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 28 C с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor M30 30 C</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1522,12 +1522,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10680205008</t>
+          <t>10680628002</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 32 C с датчиком наружной температуры</t>
+          <t>Котел настенный Devotion LL1GBQ30-M6</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1545,12 +1545,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10680206009</t>
+          <t>10680628003</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 36 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M30 30 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1568,12 +1568,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10680502003</t>
+          <t>10680632001</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 18 H с датчиком наружной температуры</t>
+          <t>Котел настенный Devotion LL1GBQ35-M6</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1591,12 +1591,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10680503003</t>
+          <t>10680632002</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 24 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor M30 36 C</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1614,12 +1614,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10680504003</t>
+          <t>10680632003</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 28 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M30 36 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1637,12 +1637,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10680505003</t>
+          <t>10680725001</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 32 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor M30 26 H</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1660,12 +1660,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10680506003</t>
+          <t>10680725002</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 36 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M6 26 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1683,12 +1683,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8732304314</t>
+          <t>10680725003</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Котел настенный LaggarTT ГАЗ 6000 28 С</t>
+          <t>Котел настенный METEOR M6 26 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1706,12 +1706,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8732304315</t>
+          <t>10680725004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Котел настенный LaggarTT ГАЗ 6000 35 С</t>
+          <t>Котел настенный METEOR M30 26 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1729,12 +1729,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10680203005</t>
+          <t>10680728001</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B20 24 C</t>
+          <t>Котел настенный Meteor M30 30 H</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1752,12 +1752,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10680202003</t>
+          <t>10680728002</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 18 C</t>
+          <t>Котел настенный METEOR M6 30 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1775,12 +1775,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10680203004</t>
+          <t>10680728003</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 24 C</t>
+          <t>Котел настенный METEOR M6 30 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1798,12 +1798,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10680204001</t>
+          <t>10680728004</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 28 C</t>
+          <t>Котел настенный METEOR M30 30 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1821,12 +1821,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10680205001</t>
+          <t>10680732001</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 32 C</t>
+          <t>Котел настенный Meteor M30 36 H</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1844,12 +1844,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10680206002</t>
+          <t>10680732002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 36 C</t>
+          <t>Котел настенный METEOR M6 36 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1867,12 +1867,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10680202002</t>
+          <t>10680732003</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 18 C</t>
+          <t>Котел настенный METEOR M6 36 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1890,12 +1890,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10680203001</t>
+          <t>10680732004</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 24 C</t>
+          <t>Котел настенный METEOR M30 36 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1913,12 +1913,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10680204002</t>
+          <t>10680735001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 28 C</t>
+          <t>Котел настенный Devotion LN1GBQ60-T2</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1936,12 +1936,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10680205002</t>
+          <t>10680735002</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 32 C</t>
+          <t>Котел настенный METEOR T2 60 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1959,12 +1959,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10680206003</t>
+          <t>10680736001</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 36 C</t>
+          <t>Котел настенный METEOR T2 45 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1982,12 +1982,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10680502001</t>
+          <t>10680737001</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 18 H</t>
+          <t>Котел настенный METEOR T2 80 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2005,12 +2005,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10680503001</t>
+          <t>3130101002</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 24 H</t>
+          <t>Котел напольный MK 99S</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2028,12 +2028,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10680504001</t>
+          <t>3130102002</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 28 H</t>
+          <t>Котел напольный MK 120S</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2051,12 +2051,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10680505001</t>
+          <t>3130103002</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 32 H</t>
+          <t>Котел напольный MK 250</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2074,12 +2074,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10680506001</t>
+          <t>3130104002</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 36 H</t>
+          <t>Котел напольный MK 350</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2097,12 +2097,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10680725001</t>
+          <t>3130105002</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 26 H</t>
+          <t>Котел напольный MK 500</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2120,12 +2120,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10680728001</t>
+          <t>3130106002</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 30 H</t>
+          <t>Котел напольный MK 700</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2143,12 +2143,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10680732001</t>
+          <t>3130107002</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 36 H</t>
+          <t>Котел напольный MK 1050</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2166,12 +2166,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10680625001</t>
+          <t>3130108002</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 26 C</t>
+          <t>Котел напольный MK 1400Х</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2189,12 +2189,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10680628001</t>
+          <t>3130109002</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 30 C</t>
+          <t>Котел напольный MK 2100Х</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2212,12 +2212,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10680632002</t>
+          <t>3130110002</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 36 C</t>
+          <t>Котел напольный MK 2800Х</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2235,12 +2235,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10680628002</t>
+          <t>8732304313</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Котел настенный Devotion LL1GBQ30-M6</t>
+          <t>Котел настенный LaggarTT ГАЗ 6000 24 С</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2258,12 +2258,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10680632001</t>
+          <t>8732304314</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Котел настенный Devotion LL1GBQ35-M6</t>
+          <t>Котел настенный LaggarTT ГАЗ 6000 28 С</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2281,12 +2281,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10680735001</t>
+          <t>8732304315</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Котел настенный Devotion LN1GBQ60-T2</t>
+          <t>Котел настенный LaggarTT ГАЗ 6000 35 С</t>
         </is>
       </c>
       <c r="C81" t="n">

--- a/Сводная_таблица_котлы_2025-09-05.xlsx
+++ b/Сводная_таблица_котлы_2025-09-05.xlsx
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10680202001</t>
+          <t>10680202001.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10680202002</t>
+          <t>10680202002.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10680202003</t>
+          <t>10680202003.0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10680202004</t>
+          <t>10680202004.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10680202005</t>
+          <t>10680202005.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10680202007</t>
+          <t>10680202007.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10680202008</t>
+          <t>10680202008.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10680202009</t>
+          <t>10680202009.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10680203001</t>
+          <t>10680203001.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10680203003</t>
+          <t>10680203003.0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10680203004</t>
+          <t>10680203004.0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10680203005</t>
+          <t>10680203005.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10680203006</t>
+          <t>10680203006.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -763,7 +763,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10680203009</t>
+          <t>10680203009.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10680203010</t>
+          <t>10680203010.0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10680203011</t>
+          <t>10680203011.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10680204001</t>
+          <t>10680204001.0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10680204002</t>
+          <t>10680204002.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10680204007</t>
+          <t>10680204007.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10680204008</t>
+          <t>10680204008.0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10680205001</t>
+          <t>10680205001.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -947,7 +947,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10680205002</t>
+          <t>10680205002.0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10680205007</t>
+          <t>10680205007.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10680205008</t>
+          <t>10680205008.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10680206002</t>
+          <t>10680206002.0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10680206003</t>
+          <t>10680206003.0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10680206008</t>
+          <t>10680206008.0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1085,7 +1085,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10680206009</t>
+          <t>10680206009.0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10680502001</t>
+          <t>10680502001.0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10680502003</t>
+          <t>10680502003.0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1154,7 +1154,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10680502007</t>
+          <t>10680502007.0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1177,7 +1177,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10680503001</t>
+          <t>10680503001.0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10680503003</t>
+          <t>10680503003.0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1223,7 +1223,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10680503007</t>
+          <t>10680503007.0</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10680504001</t>
+          <t>10680504001.0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10680504003</t>
+          <t>10680504003.0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1292,7 +1292,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10680504007</t>
+          <t>10680504007.0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10680505001</t>
+          <t>10680505001.0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10680505003</t>
+          <t>10680505003.0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10680505007</t>
+          <t>10680505007.0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10680506001</t>
+          <t>10680506001.0</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1407,7 +1407,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10680506003</t>
+          <t>10680506003.0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1430,7 +1430,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10680506007</t>
+          <t>10680506007.0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1453,7 +1453,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10680625001</t>
+          <t>10680625001.0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10680625003</t>
+          <t>10680625003.0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1499,7 +1499,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10680628001</t>
+          <t>10680628001.0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10680628002</t>
+          <t>10680628002.0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10680628003</t>
+          <t>10680628003.0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10680632001</t>
+          <t>10680632001.0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1591,7 +1591,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10680632002</t>
+          <t>10680632002.0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1614,7 +1614,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10680632003</t>
+          <t>10680632003.0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1637,7 +1637,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10680725001</t>
+          <t>10680725001.0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10680725002</t>
+          <t>10680725002.0</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1683,7 +1683,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10680725003</t>
+          <t>10680725003.0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1706,7 +1706,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10680725004</t>
+          <t>10680725004.0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1729,7 +1729,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10680728001</t>
+          <t>10680728001.0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10680728002</t>
+          <t>10680728002.0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1775,7 +1775,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10680728003</t>
+          <t>10680728003.0</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10680728004</t>
+          <t>10680728004.0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10680732001</t>
+          <t>10680732001.0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10680732002</t>
+          <t>10680732002.0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1867,7 +1867,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10680732003</t>
+          <t>10680732003.0</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1890,7 +1890,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10680732004</t>
+          <t>10680732004.0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10680735001</t>
+          <t>10680735001.0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10680735002</t>
+          <t>10680735002.0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1959,7 +1959,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10680736001</t>
+          <t>10680736001.0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10680737001</t>
+          <t>10680737001.0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2005,7 +2005,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3130101002</t>
+          <t>3130101002.0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3130102002</t>
+          <t>3130102002.0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3130103002</t>
+          <t>3130103002.0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3130104002</t>
+          <t>3130104002.0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3130105002</t>
+          <t>3130105002.0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3130106002</t>
+          <t>3130106002.0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2143,7 +2143,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3130107002</t>
+          <t>3130107002.0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3130108002</t>
+          <t>3130108002.0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2189,7 +2189,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3130109002</t>
+          <t>3130109002.0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3130110002</t>
+          <t>3130110002.0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2235,7 +2235,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8732304313</t>
+          <t>8732304313.0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8732304314</t>
+          <t>8732304314.0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8732304315</t>
+          <t>8732304315.0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/Сводная_таблица_котлы_2025-09-05.xlsx
+++ b/Сводная_таблица_котлы_2025-09-05.xlsx
@@ -464,39 +464,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10680202001.0</t>
+          <t>10680736001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B20 18 C</t>
+          <t>Котел настенный METEOR T2 45 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177310</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10680202002.0</t>
+          <t>10680735002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 18 C</t>
+          <t>Котел настенный METEOR T2 60 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>186660</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -510,30 +510,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10680202003.0</t>
+          <t>10680737001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 18 C</t>
+          <t>Котел настенный METEOR T2 80 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>193970</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10680202004.0</t>
+          <t>10680202004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>34860</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -556,108 +556,108 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10680202005.0</t>
+          <t>10680203003</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor Q3 18 C</t>
+          <t>Котел настенный Meteor C11 24 C</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36022</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10680202007.0</t>
+          <t>10680202005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 18 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor Q3 18 C</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>34196</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10680202008.0</t>
+          <t>10680203006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 18 C с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor Q3 24 C</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>35275</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10680202009.0</t>
+          <t>10680202001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B23 18 С с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B20 18 C</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>37848</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10680203001.0</t>
+          <t>3130101002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 24 C</t>
+          <t>Котел напольный MK 99S</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>342125</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -671,16 +671,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10680203003.0</t>
+          <t>3130102002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C11 24 C</t>
+          <t>Котел напольный MK 120S</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>353282</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -694,16 +694,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10680203004.0</t>
+          <t>3130103002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 24 C</t>
+          <t>Котел напольный MK 250</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>892500</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -717,16 +717,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10680203005.0</t>
+          <t>3130104002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B20 24 C</t>
+          <t>Котел напольный MK 350</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1108202</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10680203006.0</t>
+          <t>3130105002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor Q3 24 C</t>
+          <t>Котел напольный MK 500</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1309000</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -763,16 +763,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10680203009.0</t>
+          <t>3130106002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 24 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел напольный MK 700</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2454375</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10680203010.0</t>
+          <t>3130107002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 24 C с датчиком наружной температуры</t>
+          <t>Котел напольный MK 1050</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3220438</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -809,16 +809,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10680203011.0</t>
+          <t>3130108002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B23 24 С с датчиком наружной температуры</t>
+          <t>Котел напольный MK 1400Х</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4127813</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10680204001.0</t>
+          <t>3130109002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 28 C</t>
+          <t>Котел напольный MK 2100Х</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5503750</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -855,16 +855,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10680204002.0</t>
+          <t>3130110002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 28 C</t>
+          <t>Котел напольный MK 2800Х</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6076438</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -878,62 +878,62 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10680204007.0</t>
+          <t>8732304313</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 28 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный LaggarTT ГАЗ 6000 24 С</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>60714.29</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10680204008.0</t>
+          <t>10680625003</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 28 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M30 26 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>85595</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10680205001.0</t>
+          <t>10680628003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 32 C</t>
+          <t>Котел настенный METEOR M30 30 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>89760</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10680205002.0</t>
+          <t>10680632003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 32 C</t>
+          <t>Котел настенный METEOR M30 36 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>93160</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -970,39 +970,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10680205007.0</t>
+          <t>10680725004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 32 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M30 26 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>85595</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10680205008.0</t>
+          <t>10680728004</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 32 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M30 30 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>89760</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1016,39 +1016,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10680206002.0</t>
+          <t>10680732004</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor C30 36 C</t>
+          <t>Котел настенный METEOR M30 36 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>93075</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10680206003.0</t>
+          <t>10680725003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 36 C</t>
+          <t>Котел настенный METEOR M6 26 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104720</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10680206008.0</t>
+          <t>10680728003</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 36 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M6 30 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106930</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1085,16 +1085,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10680206009.0</t>
+          <t>10680732003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 36 C с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M6 36 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>111435</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10680502001.0</t>
+          <t>10680725002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 18 H</t>
+          <t>Котел настенный METEOR M6 26 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105995</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1131,16 +1131,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10680502003.0</t>
+          <t>10680728002</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 18 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M6 30 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>108290</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1154,16 +1154,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10680502007.0</t>
+          <t>10680732002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 18 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR M6 36 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>112880</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1177,62 +1177,62 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10680503001.0</t>
+          <t>10680202007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 24 H</t>
+          <t>Котел настенный METEOR B30 18 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>49130</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10680503003.0</t>
+          <t>10680203009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 24 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 24 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>50575</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10680503007.0</t>
+          <t>10680204007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 24 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 28 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>63155</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1246,16 +1246,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10680504001.0</t>
+          <t>10680205007</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 28 H</t>
+          <t>Котел настенный METEOR B30 32 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>64600</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1269,85 +1269,85 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10680504003.0</t>
+          <t>10680206008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 28 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 36 C с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>66555</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10680504007.0</t>
+          <t>10680502007</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 28 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 18 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>49130</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10680505001.0</t>
+          <t>10680503007</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 32 H</t>
+          <t>Котел настенный METEOR B30 24 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>50575</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10680505003.0</t>
+          <t>10680504007</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 32 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B30 28 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>63070</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10680505007.0</t>
+          <t>10680505007</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1370,53 +1370,53 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>64600</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10680506001.0</t>
+          <t>10680506007</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor B30 36 H</t>
+          <t>Котел настенный METEOR B30 36 H с Wi-Fi и датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>66470</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10680506003.0</t>
+          <t>10680202009</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR C30 36 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B23 18 С с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>48365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1430,39 +1430,39 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10680506007.0</t>
+          <t>10680203011</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR B30 36 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR B23 24 С с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>50575</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10680625001.0</t>
+          <t>10680202008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 26 C</t>
+          <t>Котел настенный METEOR C30 18 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>41225</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1476,16 +1476,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10680625003.0</t>
+          <t>10680203010</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 26 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 24 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>42670</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10680628001.0</t>
+          <t>10680204008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 30 C</t>
+          <t>Котел настенный METEOR C30 28 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>53975</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1522,16 +1522,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10680628002.0</t>
+          <t>10680205008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Котел настенный Devotion LL1GBQ30-M6</t>
+          <t>Котел настенный METEOR C30 32 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>55505</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10680628003.0</t>
+          <t>10680206009</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 30 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 36 C с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>56950</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1568,545 +1568,545 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10680632001.0</t>
+          <t>10680502003</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Котел настенный Devotion LL1GBQ35-M6</t>
+          <t>Котел настенный METEOR C30 18 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>41055</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10680632002.0</t>
+          <t>10680503003</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 36 C</t>
+          <t>Котел настенный METEOR C30 24 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>43180</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10680632003.0</t>
+          <t>10680504003</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 36 C с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 28 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>54570</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10680725001.0</t>
+          <t>10680505003</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 26 H</t>
+          <t>Котел настенный METEOR C30 32 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10680725002.0</t>
+          <t>10680506003</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 26 H с датчиком наружной температуры</t>
+          <t>Котел настенный METEOR C30 36 H с датчиком наружной температуры</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>57630</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10680725003.0</t>
+          <t>8732304314</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 26 C с датчиком наружной температуры</t>
+          <t>Котел настенный LaggarTT ГАЗ 6000 28 С</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>64286.71</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10680725004.0</t>
+          <t>8732304315</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 26 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный LaggarTT ГАЗ 6000 35 С</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>71429.57000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10680728001.0</t>
+          <t>10680203005</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 30 H</t>
+          <t>Котел настенный Meteor B20 24 C</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>39176</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10680728002.0</t>
+          <t>10680202003</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 30 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 18 C</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>40006</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10680728003.0</t>
+          <t>10680203004</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 30 C с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 24 C</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10680728004.0</t>
+          <t>10680204001</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 30 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 28 C</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>52539</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10680732001.0</t>
+          <t>10680205001</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Котел настенный Meteor M30 36 H</t>
+          <t>Котел настенный Meteor C30 32 C</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>53950</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10680732002.0</t>
+          <t>10680206002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 36 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor C30 36 C</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>55444</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10680732003.0</t>
+          <t>10680202002</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M6 36 C с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 18 C</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>45899</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10680732004.0</t>
+          <t>10680203001</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR M30 36 H с Wi-Fi и датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 24 C</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>47393</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10680735001.0</t>
+          <t>10680204002</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Котел настенный Devotion LN1GBQ60-T2</t>
+          <t>Котел настенный Meteor B30 28 C</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>59511</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10680735002.0</t>
+          <t>10680205002</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR T2 60 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 32 C</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>60922</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10680736001.0</t>
+          <t>10680206003</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR T2 45 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 36 C</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>62748</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10680737001.0</t>
+          <t>10680502001</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Котел настенный METEOR T2 80 H с датчиком наружной температуры</t>
+          <t>Котел настенный Meteor B30 18 H</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>45899</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3130101002.0</t>
+          <t>10680503001</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Котел напольный MK 99S</t>
+          <t>Котел настенный Meteor B30 24 H</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>47393</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3130102002.0</t>
+          <t>10680504001</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Котел напольный MK 120S</t>
+          <t>Котел настенный Meteor B30 28 H</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>59511</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3130103002.0</t>
+          <t>10680505001</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Котел напольный MK 250</t>
+          <t>Котел настенный Meteor B30 32 H</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>60922</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3130104002.0</t>
+          <t>10680506001</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Котел напольный MK 350</t>
+          <t>Котел настенный Meteor B30 36 H</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>62748</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3130105002.0</t>
+          <t>10680725001</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Котел напольный MK 500</t>
+          <t>Котел настенный Meteor M30 26 H</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>83045</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2120,184 +2120,184 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3130106002.0</t>
+          <t>10680728001</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Котел напольный MK 700</t>
+          <t>Котел настенный Meteor M30 30 H</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>87210</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3130107002.0</t>
+          <t>10680732001</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Котел напольный MK 1050</t>
+          <t>Котел настенный Meteor M30 36 H</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>90610</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3130108002.0</t>
+          <t>10680625001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Котел напольный MK 1400Х</t>
+          <t>Котел настенный Meteor M30 26 C</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>83045</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3130109002.0</t>
+          <t>10680628001</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Котел напольный MK 2100Х</t>
+          <t>Котел настенный Meteor M30 30 C</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>87210</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3130110002.0</t>
+          <t>10680632002</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Котел напольный MK 2800Х</t>
+          <t>Котел настенный Meteor M30 36 C</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>90610</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8732304313.0</t>
+          <t>10680628002</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Котел настенный LaggarTT ГАЗ 6000 24 С</t>
+          <t>Котел настенный Devotion LL1GBQ30-M6</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>104248</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8732304314.0</t>
+          <t>10680632001</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Котел настенный LaggarTT ГАЗ 6000 28 С</t>
+          <t>Котел настенный Devotion LL1GBQ35-M6</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>108647</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8732304315.0</t>
+          <t>10680735001</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Котел настенный LaggarTT ГАЗ 6000 35 С</t>
+          <t>Котел настенный Devotion LN1GBQ60-T2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>182019</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
